--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.312497333333333</v>
+        <v>17.41485066666667</v>
       </c>
       <c r="H2">
-        <v>21.937492</v>
+        <v>52.24455200000001</v>
       </c>
       <c r="I2">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="J2">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N2">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O2">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P2">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q2">
-        <v>173.0129678444289</v>
+        <v>2.471625900667556</v>
       </c>
       <c r="R2">
-        <v>1557.11671059986</v>
+        <v>22.244633106008</v>
       </c>
       <c r="S2">
-        <v>0.01789974036533347</v>
+        <v>0.0002705200310948579</v>
       </c>
       <c r="T2">
-        <v>0.01789974036533347</v>
+        <v>0.0002705200310948579</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.312497333333333</v>
+        <v>17.41485066666667</v>
       </c>
       <c r="H3">
-        <v>21.937492</v>
+        <v>52.24455200000001</v>
       </c>
       <c r="I3">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="J3">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.230717</v>
       </c>
       <c r="O3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q3">
-        <v>0.5623724824182221</v>
+        <v>1.339300700420445</v>
       </c>
       <c r="R3">
-        <v>5.061352341764</v>
+        <v>12.053706303784</v>
       </c>
       <c r="S3">
-        <v>5.818246776129377E-05</v>
+        <v>0.0001465867739228856</v>
       </c>
       <c r="T3">
-        <v>5.818246776129377E-05</v>
+        <v>0.0001465867739228856</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.312497333333333</v>
+        <v>17.41485066666667</v>
       </c>
       <c r="H4">
-        <v>21.937492</v>
+        <v>52.24455200000001</v>
       </c>
       <c r="I4">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="J4">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N4">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q4">
-        <v>14.38938112758844</v>
+        <v>45.52226290901067</v>
       </c>
       <c r="R4">
-        <v>129.504430148296</v>
+        <v>409.7003661810961</v>
       </c>
       <c r="S4">
-        <v>0.001488710293862266</v>
+        <v>0.004982422289039704</v>
       </c>
       <c r="T4">
-        <v>0.001488710293862266</v>
+        <v>0.004982422289039704</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.312497333333333</v>
+        <v>17.41485066666667</v>
       </c>
       <c r="H5">
-        <v>21.937492</v>
+        <v>52.24455200000001</v>
       </c>
       <c r="I5">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="J5">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N5">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q5">
-        <v>389.1310672821018</v>
+        <v>907.5269181401451</v>
       </c>
       <c r="R5">
-        <v>3502.179605538916</v>
+        <v>8167.742263261304</v>
       </c>
       <c r="S5">
-        <v>0.04025909247853539</v>
+        <v>0.09932903278298909</v>
       </c>
       <c r="T5">
-        <v>0.04025909247853539</v>
+        <v>0.09932903278298907</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>89.046638</v>
       </c>
       <c r="I6">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="J6">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N6">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O6">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P6">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q6">
-        <v>702.2782329424211</v>
+        <v>4.212687609000223</v>
       </c>
       <c r="R6">
-        <v>6320.50409648179</v>
+        <v>37.914188481002</v>
       </c>
       <c r="S6">
-        <v>0.07265697011334922</v>
+        <v>0.000461079641005488</v>
       </c>
       <c r="T6">
-        <v>0.07265697011334919</v>
+        <v>0.000461079641005488</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>89.046638</v>
       </c>
       <c r="I7">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="J7">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.230717</v>
       </c>
       <c r="O7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q7">
         <v>2.282730353271778</v>
@@ -883,10 +883,10 @@
         <v>20.544573179446</v>
       </c>
       <c r="S7">
-        <v>0.0002361688904404659</v>
+        <v>0.0002498453693908416</v>
       </c>
       <c r="T7">
-        <v>0.0002361688904404659</v>
+        <v>0.0002498453693908417</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>89.046638</v>
       </c>
       <c r="I8">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="J8">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N8">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q8">
-        <v>58.40804465307154</v>
+        <v>77.58903677075267</v>
       </c>
       <c r="R8">
-        <v>525.6724018776439</v>
+        <v>698.3013309367741</v>
       </c>
       <c r="S8">
-        <v>0.006042835098215731</v>
+        <v>0.008492138164669299</v>
       </c>
       <c r="T8">
-        <v>0.006042835098215731</v>
+        <v>0.008492138164669301</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>89.046638</v>
       </c>
       <c r="I9">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="J9">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N9">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q9">
-        <v>1579.524828217508</v>
+        <v>1546.80665947487</v>
       </c>
       <c r="R9">
-        <v>14215.72345395757</v>
+        <v>13921.25993527383</v>
       </c>
       <c r="S9">
-        <v>0.1634159836568676</v>
+        <v>0.1692983495220126</v>
       </c>
       <c r="T9">
-        <v>0.1634159836568676</v>
+        <v>0.1692983495220126</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>74.41623166666666</v>
+        <v>84.03051233333333</v>
       </c>
       <c r="H10">
-        <v>223.248695</v>
+        <v>252.091537</v>
       </c>
       <c r="I10">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="J10">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N10">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O10">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P10">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q10">
-        <v>1760.680723637219</v>
+        <v>11.92614250359145</v>
       </c>
       <c r="R10">
-        <v>15846.12651273497</v>
+        <v>107.335282532323</v>
       </c>
       <c r="S10">
-        <v>0.1821581827767513</v>
+        <v>0.001305319077633023</v>
       </c>
       <c r="T10">
-        <v>0.1821581827767513</v>
+        <v>0.001305319077633023</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>74.41623166666666</v>
+        <v>84.03051233333333</v>
       </c>
       <c r="H11">
-        <v>223.248695</v>
+        <v>252.091537</v>
       </c>
       <c r="I11">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="J11">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.230717</v>
       </c>
       <c r="O11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q11">
-        <v>5.723029907146111</v>
+        <v>6.462422571336555</v>
       </c>
       <c r="R11">
-        <v>51.507269164315</v>
+        <v>58.161803142029</v>
       </c>
       <c r="S11">
-        <v>0.0005920986774417241</v>
+        <v>0.0007073136571654735</v>
       </c>
       <c r="T11">
-        <v>0.0005920986774417241</v>
+        <v>0.0007073136571654735</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>74.41623166666666</v>
+        <v>84.03051233333333</v>
       </c>
       <c r="H12">
-        <v>223.248695</v>
+        <v>252.091537</v>
       </c>
       <c r="I12">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="J12">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N12">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q12">
-        <v>146.4347227382122</v>
+        <v>219.6550029647223</v>
       </c>
       <c r="R12">
-        <v>1317.91250464391</v>
+        <v>1976.895026682501</v>
       </c>
       <c r="S12">
-        <v>0.01514998297607663</v>
+        <v>0.02404129128769401</v>
       </c>
       <c r="T12">
-        <v>0.01514998297607663</v>
+        <v>0.02404129128769401</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>74.41623166666666</v>
+        <v>84.03051233333333</v>
       </c>
       <c r="H13">
-        <v>223.248695</v>
+        <v>252.091537</v>
       </c>
       <c r="I13">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="J13">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N13">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q13">
-        <v>3960.024370820804</v>
+        <v>4379.018422108822</v>
       </c>
       <c r="R13">
-        <v>35640.21933738724</v>
+        <v>39411.1657989794</v>
       </c>
       <c r="S13">
-        <v>0.4096999719802674</v>
+        <v>0.4792845872807389</v>
       </c>
       <c r="T13">
-        <v>0.4096999719802674</v>
+        <v>0.4792845872807389</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.06470466666667</v>
+        <v>35.158014</v>
       </c>
       <c r="H14">
-        <v>33.194114</v>
+        <v>105.474042</v>
       </c>
       <c r="I14">
-        <v>0.09034208022509747</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="J14">
-        <v>0.09034208022509749</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N14">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O14">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P14">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q14">
-        <v>261.7898243840411</v>
+        <v>4.989848014302001</v>
       </c>
       <c r="R14">
-        <v>2356.10841945637</v>
+        <v>44.908632128718</v>
       </c>
       <c r="S14">
-        <v>0.02708450092003593</v>
+        <v>0.0005461400285629848</v>
       </c>
       <c r="T14">
-        <v>0.02708450092003593</v>
+        <v>0.0005461400285629847</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.06470466666667</v>
+        <v>35.158014</v>
       </c>
       <c r="H15">
-        <v>33.194114</v>
+        <v>105.474042</v>
       </c>
       <c r="I15">
-        <v>0.09034208022509747</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="J15">
-        <v>0.09034208022509749</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.230717</v>
       </c>
       <c r="O15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q15">
-        <v>0.8509384888597776</v>
+        <v>2.703850505346</v>
       </c>
       <c r="R15">
-        <v>7.658446399738</v>
+        <v>24.334654548114</v>
       </c>
       <c r="S15">
-        <v>8.803720442016389E-05</v>
+        <v>0.0002959370682207581</v>
       </c>
       <c r="T15">
-        <v>8.80372044201639E-05</v>
+        <v>0.0002959370682207581</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.06470466666667</v>
+        <v>35.158014</v>
       </c>
       <c r="H16">
-        <v>33.194114</v>
+        <v>105.474042</v>
       </c>
       <c r="I16">
-        <v>0.09034208022509747</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="J16">
-        <v>0.09034208022509749</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N16">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q16">
-        <v>21.77289717250355</v>
+        <v>91.902732173874</v>
       </c>
       <c r="R16">
-        <v>195.956074552532</v>
+        <v>827.124589564866</v>
       </c>
       <c r="S16">
-        <v>0.002252601127213518</v>
+        <v>0.0100587754638208</v>
       </c>
       <c r="T16">
-        <v>0.002252601127213519</v>
+        <v>0.0100587754638208</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.06470466666667</v>
+        <v>35.158014</v>
       </c>
       <c r="H17">
-        <v>33.194114</v>
+        <v>105.474042</v>
       </c>
       <c r="I17">
-        <v>0.09034208022509747</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="J17">
-        <v>0.09034208022509749</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N17">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q17">
-        <v>588.8029957254802</v>
+        <v>1832.162945526726</v>
       </c>
       <c r="R17">
-        <v>5299.226961529322</v>
+        <v>16489.46650974053</v>
       </c>
       <c r="S17">
-        <v>0.06091694097342787</v>
+        <v>0.2005306615620394</v>
       </c>
       <c r="T17">
-        <v>0.06091694097342788</v>
+        <v>0.2005306615620393</v>
       </c>
     </row>
   </sheetData>
